--- a/nice_2019.xlsx
+++ b/nice_2019.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>region</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>okrug</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>fin_share</t>
+  </si>
+  <si>
+    <t>cev_share</t>
   </si>
   <si>
     <t>Республика Адыгея</t>
@@ -785,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK79"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,10 +912,19 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -966,7 +984,7 @@
         <v>0.2161319591329942</v>
       </c>
       <c r="U2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V2">
         <v>2808.109847626916</v>
@@ -975,12 +993,21 @@
         <v>35.09349679356463</v>
       </c>
       <c r="AK2" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL2">
+        <v>13.0650676416471</v>
+      </c>
+      <c r="AM2">
+        <v>0.1127627946485454</v>
+      </c>
+      <c r="AN2">
+        <v>0.02994266298577193</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2019</v>
@@ -1040,7 +1067,7 @@
         <v>0.6348828782367946</v>
       </c>
       <c r="U3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V3">
         <v>2675.529915945981</v>
@@ -1049,12 +1076,21 @@
         <v>29.70134661222372</v>
       </c>
       <c r="AK3" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL3">
+        <v>12.6293788517728</v>
+      </c>
+      <c r="AM3">
+        <v>0.03444236176194939</v>
+      </c>
+      <c r="AN3">
+        <v>0.02624179943767573</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2019</v>
@@ -1114,7 +1150,7 @@
         <v>0.7740556623041499</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V4">
         <v>2760.644726824107</v>
@@ -1141,12 +1177,21 @@
         <v>15.1</v>
       </c>
       <c r="AK4" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL4">
+        <v>12.70074704936785</v>
+      </c>
+      <c r="AM4">
+        <v>0.02698472664471909</v>
+      </c>
+      <c r="AN4">
+        <v>0.03777861730260673</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2019</v>
@@ -1206,7 +1251,7 @@
         <v>0.4698704596145689</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5">
         <v>2569.16453448478</v>
@@ -1233,12 +1278,21 @@
         <v>12.63</v>
       </c>
       <c r="AK5" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL5">
+        <v>12.78370468063776</v>
+      </c>
+      <c r="AM5">
+        <v>0.02117080172237031</v>
+      </c>
+      <c r="AN5">
+        <v>0.03306335862210375</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>2019</v>
@@ -1298,7 +1352,7 @@
         <v>0.7525505111643156</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V6">
         <v>2752.596086042438</v>
@@ -1307,12 +1361,21 @@
         <v>28.08925329443028</v>
       </c>
       <c r="AK6" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL6">
+        <v>13.02364495218421</v>
+      </c>
+      <c r="AM6">
+        <v>0.04804177545691907</v>
+      </c>
+      <c r="AN6">
+        <v>0.04308093994778069</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2019</v>
@@ -1372,7 +1435,7 @@
         <v>0.4446382688246473</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V7">
         <v>2827.773838285539</v>
@@ -1381,12 +1444,21 @@
         <v>34.90707662625835</v>
       </c>
       <c r="AK7" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL7">
+        <v>13.15035984574466</v>
+      </c>
+      <c r="AM7">
+        <v>0.06544622425629293</v>
+      </c>
+      <c r="AN7">
+        <v>0.05896262395118232</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -1446,7 +1518,7 @@
         <v>0.1158930198737806</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="V8">
         <v>3004.814473187275</v>
@@ -1473,12 +1545,21 @@
         <v>14.7</v>
       </c>
       <c r="AK8" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL8">
+        <v>13.18836529674536</v>
+      </c>
+      <c r="AM8">
+        <v>0.04282074909209171</v>
+      </c>
+      <c r="AN8">
+        <v>0.05317361374600249</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2019</v>
@@ -1538,7 +1619,7 @@
         <v>0.2749319485885877</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V9">
         <v>2927.788909969101</v>
@@ -1547,12 +1628,21 @@
         <v>31.65438533429188</v>
       </c>
       <c r="AK9" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL9">
+        <v>13.20665010802645</v>
+      </c>
+      <c r="AM9">
+        <v>0.05195353748680042</v>
+      </c>
+      <c r="AN9">
+        <v>0.03350932770151355</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>2019</v>
@@ -1612,7 +1702,7 @@
         <v>0.02502262906060082</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="V10">
         <v>2900.941627539697</v>
@@ -1621,12 +1711,21 @@
         <v>38.47759689806413</v>
       </c>
       <c r="AK10" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL10">
+        <v>13.08876905943622</v>
+      </c>
+      <c r="AM10">
+        <v>0.05894634282135152</v>
+      </c>
+      <c r="AN10">
+        <v>0.04133899366692185</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>2019</v>
@@ -1686,7 +1785,7 @@
         <v>0.762151672910008</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V11">
         <v>2370.960754259936</v>
@@ -1695,12 +1794,21 @@
         <v>28.92637281138014</v>
       </c>
       <c r="AK11" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL11">
+        <v>13.05345672232306</v>
+      </c>
+      <c r="AM11">
+        <v>0.02421942072206407</v>
+      </c>
+      <c r="AN11">
+        <v>0.02114680764538431</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>2019</v>
@@ -1760,7 +1868,7 @@
         <v>0.2784362918164049</v>
       </c>
       <c r="U12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V12">
         <v>2893.595054681425</v>
@@ -1769,12 +1877,21 @@
         <v>36.0243329040844</v>
       </c>
       <c r="AK12" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL12">
+        <v>12.98647859369727</v>
+      </c>
+      <c r="AM12">
+        <v>0.05438732352415558</v>
+      </c>
+      <c r="AN12">
+        <v>0.04128194436170846</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>2019</v>
@@ -1834,7 +1951,7 @@
         <v>0.2130619640442291</v>
       </c>
       <c r="U13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V13">
         <v>2757.286698306963</v>
@@ -1861,12 +1978,21 @@
         <v>13.74</v>
       </c>
       <c r="AK13" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL13">
+        <v>13.08798644631307</v>
+      </c>
+      <c r="AM13">
+        <v>0.04895189922669132</v>
+      </c>
+      <c r="AN13">
+        <v>0.02760079762657459</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>2019</v>
@@ -1926,7 +2052,7 @@
         <v>0.5488374090430597</v>
       </c>
       <c r="U14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V14">
         <v>2835.73910038479</v>
@@ -1953,12 +2079,21 @@
         <v>8.449999999999999</v>
       </c>
       <c r="AK14" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL14">
+        <v>12.88643157838945</v>
+      </c>
+      <c r="AM14">
+        <v>0.03819248561435181</v>
+      </c>
+      <c r="AN14">
+        <v>0.03204332618752116</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2019</v>
@@ -2018,7 +2153,7 @@
         <v>0.1967637278547301</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V15">
         <v>2778.38150166716</v>
@@ -2045,12 +2180,21 @@
         <v>11.83</v>
       </c>
       <c r="AK15" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL15">
+        <v>13.01161019092051</v>
+      </c>
+      <c r="AM15">
+        <v>0.04612438327707089</v>
+      </c>
+      <c r="AN15">
+        <v>0.03674370293430278</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2019</v>
@@ -2110,7 +2254,7 @@
         <v>1.664239185759911</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V16">
         <v>2607.535992429267</v>
@@ -2119,12 +2263,21 @@
         <v>29.25385021940175</v>
       </c>
       <c r="AK16" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL16">
+        <v>12.58148042352988</v>
+      </c>
+      <c r="AM16">
+        <v>0.02841068917018284</v>
+      </c>
+      <c r="AN16">
+        <v>0.03150492264416316</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2019</v>
@@ -2184,7 +2337,7 @@
         <v>0.9220946258961789</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V17">
         <v>2873.009304562644</v>
@@ -2211,12 +2364,21 @@
         <v>13.72</v>
       </c>
       <c r="AK17" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL17">
+        <v>12.34130728323219</v>
+      </c>
+      <c r="AM17">
+        <v>0.02252577100920545</v>
+      </c>
+      <c r="AN17">
+        <v>0.02910109023034828</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2019</v>
@@ -2276,7 +2438,7 @@
         <v>0.2789389189317575</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V18">
         <v>2542.004030275371</v>
@@ -2285,12 +2447,21 @@
         <v>34.21755958876055</v>
       </c>
       <c r="AK18" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL18">
+        <v>12.96291301535883</v>
+      </c>
+      <c r="AM18">
+        <v>0.05210882395278538</v>
+      </c>
+      <c r="AN18">
+        <v>0.04851014826543832</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>2019</v>
@@ -2350,7 +2521,7 @@
         <v>0.3889331067127415</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V19">
         <v>2768.22355994804</v>
@@ -2359,12 +2530,21 @@
         <v>29.58697287342257</v>
       </c>
       <c r="AK19" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL19">
+        <v>12.82547130580122</v>
+      </c>
+      <c r="AM19">
+        <v>0.03585969648805765</v>
+      </c>
+      <c r="AN19">
+        <v>0.0300899214004224</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>2019</v>
@@ -2424,7 +2604,7 @@
         <v>0.3306284977047795</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V20">
         <v>2589.145342583582</v>
@@ -2433,12 +2613,21 @@
         <v>36.26004297408291</v>
       </c>
       <c r="AK20" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL20">
+        <v>13.07910143759334</v>
+      </c>
+      <c r="AM20">
+        <v>0.03990342700020121</v>
+      </c>
+      <c r="AN20">
+        <v>0.03842800616994167</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>2019</v>
@@ -2498,7 +2687,7 @@
         <v>0.2087858683028401</v>
       </c>
       <c r="U21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V21">
         <v>2311.036913416212</v>
@@ -2525,12 +2714,21 @@
         <v>15.44</v>
       </c>
       <c r="AK21" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL21">
+        <v>13.20860034625072</v>
+      </c>
+      <c r="AM21">
+        <v>0.07472291741151232</v>
+      </c>
+      <c r="AN21">
+        <v>0.02609939220593493</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>2019</v>
@@ -2590,7 +2788,7 @@
         <v>0.1355478821093214</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V22">
         <v>2635.028747326856</v>
@@ -2617,12 +2815,21 @@
         <v>12.15</v>
       </c>
       <c r="AK22" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL22">
+        <v>13.08408919523725</v>
+      </c>
+      <c r="AM22">
+        <v>0.04777172170567489</v>
+      </c>
+      <c r="AN22">
+        <v>0.07592176979801217</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2019</v>
@@ -2682,7 +2889,7 @@
         <v>0.3351225597686494</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V23">
         <v>2215.778207800387</v>
@@ -2691,12 +2898,21 @@
         <v>24.73867746398787</v>
       </c>
       <c r="AK23" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL23">
+        <v>13.18387468182156</v>
+      </c>
+      <c r="AM23">
+        <v>0.04499826929733472</v>
+      </c>
+      <c r="AN23">
+        <v>0.05469020422291448</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>2019</v>
@@ -2756,7 +2972,7 @@
         <v>0.6203091785298085</v>
       </c>
       <c r="U24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V24">
         <v>2854.033640846081</v>
@@ -2783,12 +2999,21 @@
         <v>12.18</v>
       </c>
       <c r="AK24" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL24">
+        <v>12.9539061752881</v>
+      </c>
+      <c r="AM24">
+        <v>0.03510621047510944</v>
+      </c>
+      <c r="AN24">
+        <v>0.04540295119182745</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2019</v>
@@ -2848,7 +3073,7 @@
         <v>0.2385320884540363</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V25">
         <v>2578.300761454354</v>
@@ -2857,12 +3082,21 @@
         <v>31.8200961639701</v>
       </c>
       <c r="AK25" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL25">
+        <v>12.99716667022225</v>
+      </c>
+      <c r="AM25">
+        <v>0.02257848534444279</v>
+      </c>
+      <c r="AN25">
+        <v>0.04956479690522243</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2019</v>
@@ -2922,7 +3156,7 @@
         <v>0.2856433474013755</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V26">
         <v>2503.084800929462</v>
@@ -2931,12 +3165,21 @@
         <v>30.3604395825225</v>
       </c>
       <c r="AK26" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL26">
+        <v>12.80231043046608</v>
+      </c>
+      <c r="AM26">
+        <v>0.03715332286760858</v>
+      </c>
+      <c r="AN26">
+        <v>0.04458398744113028</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>2019</v>
@@ -2996,7 +3239,7 @@
         <v>0.3103150474304925</v>
       </c>
       <c r="U27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V27">
         <v>2449.359751822106</v>
@@ -3005,12 +3248,21 @@
         <v>31.84215828192605</v>
       </c>
       <c r="AK27" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL27">
+        <v>13.05415455622615</v>
+      </c>
+      <c r="AM27">
+        <v>0.0462761259935237</v>
+      </c>
+      <c r="AN27">
+        <v>0.04050632911392406</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2019</v>
@@ -3070,7 +3322,7 @@
         <v>0.539925556016513</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="V28">
         <v>2621.137301099661</v>
@@ -3079,12 +3331,21 @@
         <v>34.57540255213223</v>
       </c>
       <c r="AK28" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL28">
+        <v>13.04244877199049</v>
+      </c>
+      <c r="AM28">
+        <v>0.04844374470146543</v>
+      </c>
+      <c r="AN28">
+        <v>0.05486254087440959</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -3144,7 +3405,7 @@
         <v>0.04569009774999699</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V29">
         <v>2650.21371284165</v>
@@ -3171,12 +3432,21 @@
         <v>13.77</v>
       </c>
       <c r="AK29" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL29">
+        <v>12.92219407065899</v>
+      </c>
+      <c r="AM29">
+        <v>0.05397552662457395</v>
+      </c>
+      <c r="AN29">
+        <v>0.03328770184947198</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2019</v>
@@ -3236,7 +3506,7 @@
         <v>0.4998697499771225</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="V30">
         <v>2574.308082097896</v>
@@ -3263,12 +3533,21 @@
         <v>18.15</v>
       </c>
       <c r="AK30" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL30">
+        <v>12.86063147731696</v>
+      </c>
+      <c r="AM30">
+        <v>0.03200085966043412</v>
+      </c>
+      <c r="AN30">
+        <v>0.05577047066408767</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2019</v>
@@ -3328,7 +3607,7 @@
         <v>0.1092148006238745</v>
       </c>
       <c r="U31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="V31">
         <v>2552.923757905291</v>
@@ -3337,12 +3616,21 @@
         <v>41.74118045470235</v>
       </c>
       <c r="AK31" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL31">
+        <v>13.05970268043974</v>
+      </c>
+      <c r="AM31">
+        <v>0.03775203775203776</v>
+      </c>
+      <c r="AN31">
+        <v>0.04094570761237429</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2019</v>
@@ -3402,7 +3690,7 @@
         <v>0.5883099640350196</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="V32">
         <v>2729.552060209626</v>
@@ -3411,12 +3699,21 @@
         <v>31.39525432877647</v>
       </c>
       <c r="AK32" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL32">
+        <v>12.61524663726738</v>
+      </c>
+      <c r="AM32">
+        <v>0.04011461318051576</v>
+      </c>
+      <c r="AN32">
+        <v>0.06075668089585403</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>2019</v>
@@ -3476,7 +3773,7 @@
         <v>0.1522670677028515</v>
       </c>
       <c r="U33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V33">
         <v>3031.436003555355</v>
@@ -3485,12 +3782,21 @@
         <v>34.6026579672281</v>
       </c>
       <c r="AK33" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL33">
+        <v>13.37695027622616</v>
+      </c>
+      <c r="AM33">
+        <v>0.05309399378929028</v>
+      </c>
+      <c r="AN33">
+        <v>0.0476406877224873</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2019</v>
@@ -3550,7 +3856,7 @@
         <v>0.1346399405488512</v>
       </c>
       <c r="U34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V34">
         <v>2549.120447472323</v>
@@ -3559,12 +3865,21 @@
         <v>33.88492859615923</v>
       </c>
       <c r="AK34" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL34">
+        <v>13.12233436644872</v>
+      </c>
+      <c r="AM34">
+        <v>0.05050795870521942</v>
+      </c>
+      <c r="AN34">
+        <v>0.05050795870521942</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>2019</v>
@@ -3624,7 +3939,7 @@
         <v>0.1991997511683792</v>
       </c>
       <c r="U35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V35">
         <v>2534.744295804459</v>
@@ -3651,12 +3966,21 @@
         <v>12.97</v>
       </c>
       <c r="AK35" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL35">
+        <v>13.2243506985988</v>
+      </c>
+      <c r="AM35">
+        <v>0.04564485674410966</v>
+      </c>
+      <c r="AN35">
+        <v>0.04342828995977342</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>2019</v>
@@ -3716,7 +4040,7 @@
         <v>0.4839817031120219</v>
       </c>
       <c r="U36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V36">
         <v>2533.034173565796</v>
@@ -3725,12 +4049,21 @@
         <v>29.43553939463161</v>
       </c>
       <c r="AK36" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL36">
+        <v>13.30806105129826</v>
+      </c>
+      <c r="AM36">
+        <v>0.05268630849220104</v>
+      </c>
+      <c r="AN36">
+        <v>0.07660311958405545</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>2019</v>
@@ -3790,7 +4123,7 @@
         <v>0.7936715711179829</v>
       </c>
       <c r="U37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="V37">
         <v>2665.634526546344</v>
@@ -3799,12 +4132,21 @@
         <v>32.28746442147206</v>
       </c>
       <c r="AK37" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL37">
+        <v>12.91484367254444</v>
+      </c>
+      <c r="AM37">
+        <v>0.05984008253804488</v>
+      </c>
+      <c r="AN37">
+        <v>0.04010833118390508</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:40">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>2019</v>
@@ -3864,7 +4206,7 @@
         <v>0.2546364702612465</v>
       </c>
       <c r="U38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V38">
         <v>3023.776252971325</v>
@@ -3873,12 +4215,21 @@
         <v>41.49034269380388</v>
       </c>
       <c r="AK38" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL38">
+        <v>13.14289428227526</v>
+      </c>
+      <c r="AM38">
+        <v>0.1091811414392059</v>
+      </c>
+      <c r="AN38">
+        <v>0.05521091811414392</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:40">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>2019</v>
@@ -3938,7 +4289,7 @@
         <v>0.05077529347538245</v>
       </c>
       <c r="U39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V39">
         <v>2319.438577098875</v>
@@ -3980,12 +4331,21 @@
         <v>12.48</v>
       </c>
       <c r="AK39" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL39">
+        <v>13.84141501541004</v>
+      </c>
+      <c r="AM39">
+        <v>0.08934340270690665</v>
+      </c>
+      <c r="AN39">
+        <v>0.04996445689430679</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>2019</v>
@@ -4045,7 +4405,7 @@
         <v>0.03125764111747742</v>
       </c>
       <c r="U40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V40">
         <v>2757.562592618252</v>
@@ -4054,12 +4414,21 @@
         <v>26.06713013152007</v>
       </c>
       <c r="AK40" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL40">
+        <v>13.42042114792012</v>
+      </c>
+      <c r="AM40">
+        <v>0.05082479980272296</v>
+      </c>
+      <c r="AN40">
+        <v>0.05480927721320202</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:40">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>2019</v>
@@ -4119,7 +4488,7 @@
         <v>0.1471192862217237</v>
       </c>
       <c r="U41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V41">
         <v>2344.532779573985</v>
@@ -4146,12 +4515,21 @@
         <v>2.39</v>
       </c>
       <c r="AK41" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL41">
+        <v>13.23369723401792</v>
+      </c>
+      <c r="AM41">
+        <v>0.03317652884377321</v>
+      </c>
+      <c r="AN41">
+        <v>0.05050755137410249</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:40">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>2019</v>
@@ -4211,7 +4589,7 @@
         <v>1.14110265206277</v>
       </c>
       <c r="U42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V42">
         <v>2630.092443164997</v>
@@ -4220,12 +4598,21 @@
         <v>27.49518121157811</v>
       </c>
       <c r="AK42" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL42">
+        <v>13.14656282072547</v>
+      </c>
+      <c r="AM42">
+        <v>0.08488063660477455</v>
+      </c>
+      <c r="AN42">
+        <v>0.04641909814323607</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:40">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>2019</v>
@@ -4285,7 +4672,7 @@
         <v>0.2324714195090536</v>
       </c>
       <c r="U43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V43">
         <v>2567.891537910506</v>
@@ -4294,12 +4681,21 @@
         <v>30.89963157236429</v>
       </c>
       <c r="AK43" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL43">
+        <v>13.16681426515749</v>
+      </c>
+      <c r="AM43">
+        <v>0.05921587766390111</v>
+      </c>
+      <c r="AN43">
+        <v>0.059262357944642</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:40">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>2019</v>
@@ -4359,7 +4755,7 @@
         <v>0.3584443490879607</v>
       </c>
       <c r="U44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="V44">
         <v>2675.183985417056</v>
@@ -4368,12 +4764,21 @@
         <v>33.7311829930424</v>
       </c>
       <c r="AK44" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL44">
+        <v>12.82593343476422</v>
+      </c>
+      <c r="AM44">
+        <v>0.04583371528096068</v>
+      </c>
+      <c r="AN44">
+        <v>0.05848382069850585</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:40">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>2019</v>
@@ -4433,7 +4838,7 @@
         <v>0.3251563670035011</v>
       </c>
       <c r="U45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V45">
         <v>3056.959405724183</v>
@@ -4442,12 +4847,21 @@
         <v>38.278081183871</v>
       </c>
       <c r="AK45" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL45">
+        <v>12.94819989192907</v>
+      </c>
+      <c r="AM45">
+        <v>0.04007409325392874</v>
+      </c>
+      <c r="AN45">
+        <v>0.03435775887824408</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:40">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>2019</v>
@@ -4507,7 +4921,7 @@
         <v>0.8137755258313604</v>
       </c>
       <c r="U46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V46">
         <v>2486.054840319615</v>
@@ -4516,12 +4930,21 @@
         <v>32.90650867445288</v>
       </c>
       <c r="AK46" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL46">
+        <v>12.75078959216642</v>
+      </c>
+      <c r="AM46">
+        <v>0.06454077529354993</v>
+      </c>
+      <c r="AN46">
+        <v>0.06305291941450859</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>2019</v>
@@ -4581,7 +5004,7 @@
         <v>0.01066127458652488</v>
       </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V47">
         <v>2798.490567733796</v>
@@ -4590,12 +5013,21 @@
         <v>32.5224148776399</v>
       </c>
       <c r="AK47" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL47">
+        <v>13.03206961098798</v>
+      </c>
+      <c r="AM47">
+        <v>0.05378471185428485</v>
+      </c>
+      <c r="AN47">
+        <v>0.0848014332636608</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>2019</v>
@@ -4655,7 +5087,7 @@
         <v>-4.689582056016661E-13</v>
       </c>
       <c r="U48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V48">
         <v>2467.837112056733</v>
@@ -4664,12 +5096,21 @@
         <v>33.59145257604688</v>
       </c>
       <c r="AK48" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL48">
+        <v>13.29260419984598</v>
+      </c>
+      <c r="AM48">
+        <v>0.05469360419689698</v>
+      </c>
+      <c r="AN48">
+        <v>0.03929009934144437</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>2019</v>
@@ -4729,7 +5170,7 @@
         <v>0.08537864441768761</v>
       </c>
       <c r="U49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V49">
         <v>2770.131997807085</v>
@@ -4738,12 +5179,21 @@
         <v>33.90439480756417</v>
       </c>
       <c r="AK49" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL49">
+        <v>13.16057035406699</v>
+      </c>
+      <c r="AM49">
+        <v>0.04650622920374526</v>
+      </c>
+      <c r="AN49">
+        <v>0.04186334442466919</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>2019</v>
@@ -4803,7 +5253,7 @@
         <v>0.4283140243663581</v>
       </c>
       <c r="U50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V50">
         <v>2424.731765048728</v>
@@ -4830,12 +5280,21 @@
         <v>13.27</v>
       </c>
       <c r="AK50" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL50">
+        <v>12.83770079530366</v>
+      </c>
+      <c r="AM50">
+        <v>0.05024330050522691</v>
+      </c>
+      <c r="AN50">
+        <v>0.06437568391888435</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>2019</v>
@@ -4895,7 +5354,7 @@
         <v>0.3301580828014181</v>
       </c>
       <c r="U51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V51">
         <v>2481.274722237952</v>
@@ -4904,12 +5363,21 @@
         <v>30.81742545604878</v>
       </c>
       <c r="AK51" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL51">
+        <v>12.95648226214895</v>
+      </c>
+      <c r="AM51">
+        <v>0.03609457937912176</v>
+      </c>
+      <c r="AN51">
+        <v>0.04439440244490912</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>2019</v>
@@ -4969,7 +5437,7 @@
         <v>0.4319594539426106</v>
       </c>
       <c r="U52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V52">
         <v>2343.314779916982</v>
@@ -4978,12 +5446,21 @@
         <v>34.78514353134147</v>
       </c>
       <c r="AK52" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL52">
+        <v>12.95691797781546</v>
+      </c>
+      <c r="AM52">
+        <v>0.0476480623933707</v>
+      </c>
+      <c r="AN52">
+        <v>0.11698757007068</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>2019</v>
@@ -5043,7 +5520,7 @@
         <v>0.3015151043996696</v>
       </c>
       <c r="U53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V53">
         <v>2903.414958701917</v>
@@ -5052,12 +5529,21 @@
         <v>31.69323734996597</v>
       </c>
       <c r="AK53" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL53">
+        <v>12.97344062928902</v>
+      </c>
+      <c r="AM53">
+        <v>0.03473749876875593</v>
+      </c>
+      <c r="AN53">
+        <v>0.0428801260793906</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>2019</v>
@@ -5117,7 +5603,7 @@
         <v>0.51623572619377</v>
       </c>
       <c r="U54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V54">
         <v>2238.253560928425</v>
@@ -5126,12 +5612,21 @@
         <v>40.75461217682502</v>
       </c>
       <c r="AK54" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL54">
+        <v>13.10741272156729</v>
+      </c>
+      <c r="AM54">
+        <v>0.06458536585365854</v>
+      </c>
+      <c r="AN54">
+        <v>0.06263414634146341</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>2019</v>
@@ -5191,7 +5686,7 @@
         <v>0.1887234453944586</v>
       </c>
       <c r="U55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V55">
         <v>2370.705758090644</v>
@@ -5200,12 +5695,21 @@
         <v>29.4765363023655</v>
       </c>
       <c r="AK55" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL55">
+        <v>13.33009127534492</v>
+      </c>
+      <c r="AM55">
+        <v>0.06022514071294559</v>
+      </c>
+      <c r="AN55">
+        <v>0.07197467166979363</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>2019</v>
@@ -5265,7 +5769,7 @@
         <v>0.01800870131440035</v>
       </c>
       <c r="U56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V56">
         <v>2393.991064587154</v>
@@ -5292,12 +5796,21 @@
         <v>11.53</v>
       </c>
       <c r="AK56" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL56">
+        <v>13.53767412970087</v>
+      </c>
+      <c r="AM56">
+        <v>0.05694367326793756</v>
+      </c>
+      <c r="AN56">
+        <v>0.1120570876262159</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>2019</v>
@@ -5357,7 +5870,7 @@
         <v>0.06394961872318561</v>
       </c>
       <c r="U57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V57">
         <v>2884.614689137479</v>
@@ -5366,12 +5879,21 @@
         <v>40.74791550228998</v>
       </c>
       <c r="AK57" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL57">
+        <v>13.15637674086909</v>
+      </c>
+      <c r="AM57">
+        <v>0.05560293365171416</v>
+      </c>
+      <c r="AN57">
+        <v>0.04144635851952926</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>2019</v>
@@ -5431,7 +5953,7 @@
         <v>0.584834035805514</v>
       </c>
       <c r="U58" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="V58">
         <v>2675.280717940997</v>
@@ -5458,12 +5980,21 @@
         <v>11.08</v>
       </c>
       <c r="AK58" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL58">
+        <v>13.12722495802444</v>
+      </c>
+      <c r="AM58">
+        <v>0.04650036328408816</v>
+      </c>
+      <c r="AN58">
+        <v>0.03947687091305402</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>2019</v>
@@ -5523,7 +6054,7 @@
         <v>0.6360199038255843</v>
       </c>
       <c r="U59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="V59">
         <v>2523.838702546445</v>
@@ -5532,12 +6063,21 @@
         <v>31.79234450659732</v>
       </c>
       <c r="AK59" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL59">
+        <v>12.78287507223692</v>
+      </c>
+      <c r="AM59">
+        <v>0.0325065963060686</v>
+      </c>
+      <c r="AN59">
+        <v>0.04854881266490763</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>2019</v>
@@ -5597,7 +6137,7 @@
         <v>0.3571074448787499</v>
       </c>
       <c r="U60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V60">
         <v>2453.857169816476</v>
@@ -5606,12 +6146,21 @@
         <v>30.23388421240914</v>
       </c>
       <c r="AK60" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL60">
+        <v>13.04202414130685</v>
+      </c>
+      <c r="AM60">
+        <v>0.03964887372959123</v>
+      </c>
+      <c r="AN60">
+        <v>0.06887476842633795</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61">
         <v>2019</v>
@@ -5671,7 +6220,7 @@
         <v>0.1682301947893166</v>
       </c>
       <c r="U61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="V61">
         <v>2480.629939674407</v>
@@ -5680,12 +6229,21 @@
         <v>47.03206372246296</v>
       </c>
       <c r="AK61" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL61">
+        <v>13.53538769568097</v>
+      </c>
+      <c r="AM61">
+        <v>0.04270882491741387</v>
+      </c>
+      <c r="AN61">
+        <v>0.0752713544124587</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>2019</v>
@@ -5745,7 +6303,7 @@
         <v>0.2720094425670965</v>
       </c>
       <c r="U62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="V62">
         <v>3368.59839163365</v>
@@ -5754,12 +6312,21 @@
         <v>45.6043373032373</v>
       </c>
       <c r="AK62" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL62">
+        <v>13.11670665584712</v>
+      </c>
+      <c r="AM62">
+        <v>0.04384582318383724</v>
+      </c>
+      <c r="AN62">
+        <v>0.05330276543917468</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:40">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>2019</v>
@@ -5819,7 +6386,7 @@
         <v>0.1656619496464913</v>
       </c>
       <c r="U63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="V63">
         <v>2253.96938284189</v>
@@ -5828,12 +6395,21 @@
         <v>33.67824059984402</v>
       </c>
       <c r="AK63" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL63">
+        <v>13.02968358757243</v>
+      </c>
+      <c r="AM63">
+        <v>0.04108073945331016</v>
+      </c>
+      <c r="AN63">
+        <v>0.05925106651919734</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:40">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>2019</v>
@@ -5893,7 +6469,7 @@
         <v>0.1063204908562909</v>
       </c>
       <c r="U64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V64">
         <v>2507.956981946736</v>
@@ -5902,12 +6478,21 @@
         <v>24.5278176534855</v>
       </c>
       <c r="AK64" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL64">
+        <v>13.17021375833034</v>
+      </c>
+      <c r="AM64">
+        <v>0.04590782319067398</v>
+      </c>
+      <c r="AN64">
+        <v>0.04396155621099942</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:40">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>2019</v>
@@ -5967,7 +6552,7 @@
         <v>0.4928262250803641</v>
       </c>
       <c r="U65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="V65">
         <v>2808.008436397588</v>
@@ -5976,12 +6561,21 @@
         <v>38.05328784157375</v>
       </c>
       <c r="AK65" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL65">
+        <v>13.01985887145151</v>
+      </c>
+      <c r="AM65">
+        <v>0.03111132548716959</v>
+      </c>
+      <c r="AN65">
+        <v>0.02657727185027976</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:40">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>2019</v>
@@ -6041,7 +6635,7 @@
         <v>0.3076573866820524</v>
       </c>
       <c r="U66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V66">
         <v>2442.237530027062</v>
@@ -6050,12 +6644,21 @@
         <v>29.12914075847291</v>
       </c>
       <c r="AK66" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL66">
+        <v>12.92628928744869</v>
+      </c>
+      <c r="AM66">
+        <v>0.04082672706681766</v>
+      </c>
+      <c r="AN66">
+        <v>0.04314835787089467</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:40">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>2019</v>
@@ -6115,7 +6718,7 @@
         <v>0.244358078821989</v>
       </c>
       <c r="U67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="V67">
         <v>2868.357449954144</v>
@@ -6124,12 +6727,21 @@
         <v>38.52758890847534</v>
       </c>
       <c r="AK67" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL67">
+        <v>13.10361494269645</v>
+      </c>
+      <c r="AM67">
+        <v>0.07603863253104401</v>
+      </c>
+      <c r="AN67">
+        <v>0.04836731565230723</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:40">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>2019</v>
@@ -6189,7 +6801,7 @@
         <v>0.2273844079490033</v>
       </c>
       <c r="U68" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="V68">
         <v>2356.676417596702</v>
@@ -6198,12 +6810,21 @@
         <v>30.82299599998367</v>
       </c>
       <c r="AK68" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL68">
+        <v>13.02478631138629</v>
+      </c>
+      <c r="AM68">
+        <v>0.01449107349872478</v>
+      </c>
+      <c r="AN68">
+        <v>0.03999536285648039</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:40">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>2019</v>
@@ -6263,7 +6884,7 @@
         <v>0.1818198091262389</v>
       </c>
       <c r="U69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V69">
         <v>2864.146501098754</v>
@@ -6290,12 +6911,21 @@
         <v>12.39</v>
       </c>
       <c r="AK69" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL69">
+        <v>13.3401620900516</v>
+      </c>
+      <c r="AM69">
+        <v>0.04469378564995495</v>
+      </c>
+      <c r="AN69">
+        <v>0.05186130291203841</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>2019</v>
@@ -6355,7 +6985,7 @@
         <v>0.0152285400410932</v>
       </c>
       <c r="U70" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V70">
         <v>2534.834774733832</v>
@@ -6364,12 +6994,21 @@
         <v>28.16921813077827</v>
       </c>
       <c r="AK70" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL70">
+        <v>13.03679804334584</v>
+      </c>
+      <c r="AM70">
+        <v>0.04386548410938655</v>
+      </c>
+      <c r="AN70">
+        <v>0.04682187730968219</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:40">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>2019</v>
@@ -6429,7 +7068,7 @@
         <v>0.1021306120146193</v>
       </c>
       <c r="U71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V71">
         <v>2466.455822788648</v>
@@ -6438,12 +7077,21 @@
         <v>37.00318726344647</v>
       </c>
       <c r="AK71" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL71">
+        <v>12.93033642062124</v>
+      </c>
+      <c r="AM71">
+        <v>0.06191265892758432</v>
+      </c>
+      <c r="AN71">
+        <v>0.04943536286819871</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>2019</v>
@@ -6503,7 +7151,7 @@
         <v>0.202540544213349</v>
       </c>
       <c r="U72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="V72">
         <v>2189.613375168846</v>
@@ -6530,12 +7178,21 @@
         <v>14.39</v>
       </c>
       <c r="AK72" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL72">
+        <v>13.1104315522072</v>
+      </c>
+      <c r="AM72">
+        <v>0.02974101921470342</v>
+      </c>
+      <c r="AN72">
+        <v>0.03538011695906432</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:40">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>2019</v>
@@ -6595,7 +7252,7 @@
         <v>0.2562001253931498</v>
       </c>
       <c r="U73" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="V73">
         <v>2655.661377487201</v>
@@ -6640,12 +7297,21 @@
         <v>12.62</v>
       </c>
       <c r="AK73" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL73">
+        <v>12.83523239367138</v>
+      </c>
+      <c r="AM73">
+        <v>0.03214285714285714</v>
+      </c>
+      <c r="AN73">
+        <v>0.0506578947368421</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>2019</v>
@@ -6705,7 +7371,7 @@
         <v>0.1755094809313107</v>
       </c>
       <c r="U74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="V74">
         <v>2314.470895344146</v>
@@ -6714,12 +7380,21 @@
         <v>24.31917070821725</v>
       </c>
       <c r="AK74" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL74">
+        <v>13.34820540541317</v>
+      </c>
+      <c r="AM74">
+        <v>0.0521764336441374</v>
+      </c>
+      <c r="AN74">
+        <v>0.06826416735107976</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:40">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>2019</v>
@@ -6779,7 +7454,7 @@
         <v>0.265407723950176</v>
       </c>
       <c r="U75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V75">
         <v>2298.486290074305</v>
@@ -6806,12 +7481,21 @@
         <v>14.37</v>
       </c>
       <c r="AK75" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL75">
+        <v>13.18956284308142</v>
+      </c>
+      <c r="AM75">
+        <v>0.03590367599561343</v>
+      </c>
+      <c r="AN75">
+        <v>0.08510222783060675</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:40">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>2019</v>
@@ -6871,7 +7555,7 @@
         <v>0.1194119374457046</v>
       </c>
       <c r="U76" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="V76">
         <v>2572.281784075451</v>
@@ -6880,12 +7564,21 @@
         <v>35.59766208382877</v>
       </c>
       <c r="AK76" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL76">
+        <v>13.15921047002053</v>
+      </c>
+      <c r="AM76">
+        <v>0.09324215607401448</v>
+      </c>
+      <c r="AN76">
+        <v>0.07739340305711986</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:40">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>2019</v>
@@ -6945,7 +7638,7 @@
         <v>0.2071516259780992</v>
       </c>
       <c r="U77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V77">
         <v>2202.712423793079</v>
@@ -6954,12 +7647,21 @@
         <v>41.23675854886528</v>
       </c>
       <c r="AK77" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL77">
+        <v>13.33849640671321</v>
+      </c>
+      <c r="AM77">
+        <v>0.05548387096774194</v>
+      </c>
+      <c r="AN77">
+        <v>0.03870967741935484</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>2019</v>
@@ -7019,7 +7721,7 @@
         <v>0.1205137901108202</v>
       </c>
       <c r="U78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V78">
         <v>2793.11727013283</v>
@@ -7028,12 +7730,21 @@
         <v>24.98476941605915</v>
       </c>
       <c r="AK78" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL78">
+        <v>13.56939382632485</v>
+      </c>
+      <c r="AM78">
+        <v>0.03797132235793946</v>
+      </c>
+      <c r="AN78">
+        <v>0.05894848645778016</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:40">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>2019</v>
@@ -7093,7 +7804,7 @@
         <v>0.2691941094890211</v>
       </c>
       <c r="U79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V79">
         <v>2988.503585032362</v>
@@ -7120,7 +7831,16 @@
         <v>13.44</v>
       </c>
       <c r="AK79" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL79">
+        <v>13.03590337557662</v>
+      </c>
+      <c r="AM79">
+        <v>0.04240781523519116</v>
+      </c>
+      <c r="AN79">
+        <v>0.05042633689084648</v>
       </c>
     </row>
   </sheetData>
